--- a/Documentation/Scrum/CST-247-RS-SprintProductLogTemplate.xlsx
+++ b/Documentation/Scrum/CST-247-RS-SprintProductLogTemplate.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>User Stories</t>
   </si>
@@ -57,6 +57,78 @@
   </si>
   <si>
     <t>Project Title: Minesweeper</t>
+  </si>
+  <si>
+    <t>As a dev, I need design documentation to properly implement project code</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>Have design documentation</t>
+  </si>
+  <si>
+    <t>The project can be written</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Design Documentation</t>
+  </si>
+  <si>
+    <t>Login Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User </t>
+  </si>
+  <si>
+    <t>log in</t>
+  </si>
+  <si>
+    <t>I can play Minesweeper</t>
+  </si>
+  <si>
+    <t>Registration Page</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>registration</t>
+  </si>
+  <si>
+    <t>I can register an account</t>
+  </si>
+  <si>
+    <t>Minesweeper</t>
+  </si>
+  <si>
+    <t>As a user, I would like to be able to register an account to login</t>
+  </si>
+  <si>
+    <t>As a user, I need to login in order to play minesweeper</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to play minesweeper so that I can get a high score</t>
+  </si>
+  <si>
+    <t>play minesweeper</t>
+  </si>
+  <si>
+    <t>I can see my score</t>
+  </si>
+  <si>
+    <t>Save and Resume</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to save and resume my game.</t>
+  </si>
+  <si>
+    <t>save board state</t>
+  </si>
+  <si>
+    <t>resume from where I left off</t>
   </si>
 </sst>
 </file>
@@ -224,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -272,6 +344,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,17 +628,17 @@
   <dimension ref="A1:I2060"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="69.42578125" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="32.140625" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="20.140625" customWidth="1"/>
     <col min="9" max="9" width="21.42578125" customWidth="1"/>
@@ -630,57 +703,135 @@
       <c r="A4" s="8">
         <v>0</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="11"/>
+      <c r="B4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="21">
+        <v>43121</v>
+      </c>
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="11"/>
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="21">
+        <v>43121</v>
+      </c>
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="11"/>
+      <c r="A6" s="8">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="21">
+        <v>43121</v>
+      </c>
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="11"/>
+      <c r="A7" s="8">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="21">
+        <v>43121</v>
+      </c>
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="11"/>
+      <c r="A8" s="8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="21">
+        <v>43121</v>
+      </c>
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -23265,30 +23416,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
-  <xsnLocation/>
-  <cached>True</cached>
-  <openByDefault>False</openByDefault>
-  <xsnScope/>
-</customXsn>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Course Development" ma:contentTypeID="0x010100A30BC5E90BED914E81F4B67CDEADBEEF0072B4D5296E9CCD41A4B955E8BC4A98B900B6D41DF35BCF664B888FA24C3105B583" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new Course Development document." ma:contentTypeScope="" ma:versionID="9dd9ed6e3bbe7b4f5b00c4ab3cb49488">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="30a82cfc-8d0b-455e-b705-4035c60ff9fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7f302115a5f8a1b15560b600ae7cd187" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -23517,6 +23644,30 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
+  <xsnLocation/>
+  <cached>True</cached>
+  <openByDefault>False</openByDefault>
+  <xsnScope/>
+</customXsn>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -23571,30 +23722,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C5499EA-2107-4096-9690-EDC799091AC5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1713361C-F80E-4293-9FB3-5DC100B81DE1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{543DFEB0-7AA3-434C-B1C2-BCF78AB39365}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68741204-811B-4110-9B64-9D55504528C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -23613,6 +23740,30 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{543DFEB0-7AA3-434C-B1C2-BCF78AB39365}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1713361C-F80E-4293-9FB3-5DC100B81DE1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C5499EA-2107-4096-9690-EDC799091AC5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A856C235-C1E3-486A-AF6F-91B1EB05F3BD}">
   <ds:schemaRefs>
